--- a/finetuning/it_datasets/it_dataset/it_el jem_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_el jem_dataset.xlsx
@@ -642,9 +642,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great cafe, check out CAFE RADHOUEN at 6WQH+8FR CAFE RADHOUEN, thny@ `yn lnjH, Menzel Jemil. 
-This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. 
-With a rating of 5.0, it's a must-visit spot.</t>
+          <t>CAFE RADHOUEN is a cafe located in el jem, Tunisia (37.2291348, 9.9224329). It has a 5.0 rating based on 1 review and offers a variety of cafe-related services.</t>
         </is>
       </c>
     </row>
@@ -743,9 +741,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Cafe ahbeb located at 7080 No-Hope St, Menzel Jemil. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 03:30-00:00. To get there, use these GPS coordinates: (37.2291348, 9.9224329). For more details, visit their featured image at https://lh5.googleusercontent.com/p/AF1QipNxXv5yBN1wn_WAfu0e2Ti0hFSMNzKgmjuhlVKf=w408-h906-k-no.</t>
+          <t>Cafe ahbeb is a cafe located at 7080 No-Hope St, Menzel Jemil. It offers a wide variety of food and drinks, as well as free Wi-Fi and a friendly atmosphere. The cafe is open from 3:30 AM to midnight, and is closed on Sundays. Cafe ahbeb is a great place to relax and enjoy a cup of coffee or tea.</t>
         </is>
       </c>
     </row>
@@ -844,9 +840,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Sunday Coffee located at 6VPW+GH3 Sunday Coffee, Menzel Jemil. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 37.2291348, 9.9224329.</t>
+          <t>Sunday Coffee is a cafe located in Menzel Jemil, Tunisia. It offers a wide selection of coffee drinks, as well as a variety of pastries and snacks. The cafe is open from 6am to midnight, and is closed on Sundays. It is located at 6VPW+GH3 Sunday Coffee, Menzel Jemil, and can be contacted at +216 52 948 386.</t>
         </is>
       </c>
     </row>
@@ -945,10 +939,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great place to grab a coffee, head to cafe Ali Ouni. 
-Located at cafe Ali Ouni, Menzel Jemil 7080, this top-rated cafe is perfect for coffee lovers. 
-With a 5.0 rating, it's a must-visit spot. To get there, use these GPS coordinates: 37.23744, 9.9221347. 
-For more details, call them at 94 283 039.</t>
+          <t>Cafe Ali Ouni is a highly-rated (5-star) cafe located in Menzel Jemil, near el jem. It has great reviews and is known for being a cafe with a focus on providing a relaxing and enjoyable experience for its guests.</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1042,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a delicious meal, check out Restaurant El Hana located at 7PW5+65C Restaurant El Hana, El Jem. This top-rated restaurant is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 09:00-17:00. To get there, use these GPS coordinates: 33.561917, -7.608013. For more details, visit their website at https://www.google.com/maps/place/Restaurant+El+Hana/data=!4m7!3m6!1s0x1301fc9d10e2ad11:0x7d66122b4b385a16!8m2!3d35.2955726!4d10.7078781!16s%2Fg%2F11cn9sfmks!19sChIJEa3iEJ38ARMRFlo4SysSZn0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 96 576 417.</t>
+          <t>Restaurant El Hana is a 4.7-rated restaurant in El Jem, Tunisia. It offers a wide range of dishes, including salads, brochettes, grillades, and poulet. The restaurant is known for its great food, friendly staff, and beautiful view of the nearby amphitheater. It is open from 9am to 5pm, closed on Mondays, and is located at 7PW5+65C, El Jem.</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1149,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Dar El Jem located at Ave Farhat Hached. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe, Musee d'art, Atelier d'artiste to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 35.501506575272, 11.065588006004. For more details, visit their website at http://www.micromosaictunisia.com/ or call them at 98 277 634.</t>
+          <t>Dar El Jem is a place in El Jem, Tunisia (coordinates: 35.501506575272, 11.065588006004). This place is a cafe that also offers art museum and artist studio services. It is open from 7am to 12am. You can contact them by phone at +216 98 277 634. They also have a website at http://www.micromosaictunisia.com/. Dar El Jem has received 65 reviews and is rated 4.7 out of 5 stars.</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1252,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Restaurant Le Bonheur located at 7PV5+238 Restaurant Le Bonheur, C87, El Jem. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-23:00, but closed on []. To get there, use these GPS coordinates: 46.034288, 4.0738428. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Le+Bonheur/data=!4m7!3m6!1s0x1301fc9dda8cc9ad:0x53a3104c3f24a621!8m2!3d35.2925252!4d10.7076891!16s%2Fg%2F1pp2tzkb_!19sChIJrcmM2p38ARMRIaYkP0wQo1M?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 976 655.</t>
+          <t>Nestled in the heart of El Jem, Restaurant Le Bonheur unveils an enticing dining experience. With a breathtaking rating of 4.0, this culinary haven is renowned for its delightful traditional cuisine, attentively prepared by the skillful chef. Located at the coordinates (46.034288, 4.0738428), Le Bonheur caters to its patrons from 9:00 AM to 11:00 PM daily, except for specified closures.</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1355,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Restaurant Diar El Jem located at 7MXR+X6X Restaurant Diar El Jem, Av. Hedi Chaker, El Jem. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-00:00. To get there, use these GPS coordinates: 35.3, 10.71667. For more details, call them at 27 444 700.</t>
+          <t>Restaurant Diar El Jem is a restaurant located in El Jem, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine. The restaurant is located at 7MXR+X6X, El Jem, Tunisia. It is open from 09:00 to 00:00, and is closed on Sundays. The restaurant has a rating of 4.0 out of 5 on Google Maps.</t>
         </is>
       </c>
     </row>
@@ -1467,7 +1458,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Cafe Venus located at 7PX4+388 Cafe Venus, El Jem. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 35.3, 10.71667. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Venus/data=!4m7!3m6!1s0x1301fc83335746cb:0x383d2430c3033ca2!8m2!3d35.2976549!4d10.7058344!16s%2Fg%2F1ptw1zz67!19sChIJy0ZXM4P8ARMRojwDwzAkPTg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 408 841.</t>
+          <t>Café Venus is a highly-rated (4.4/5) cafe situated in El Jem, Tunisia (coordinates: 35.3, 10.71667). It offers a cozy ambiance, where customers can enjoy their delectable offerings. Café Venus operates daily from 6 AM to 11 PM, providing extended hours for those seeking a delightful start or end to their day. The cafe's focal point is on providing a memorable dining experience, making it an ideal destination for individuals and groups seeking a superb gastronomic adventure.</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1557,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great restaurant, check out Le Bonheur 2 located at 7PX4+6Q7 Le Bonheur 2. This top-rated destination offers a range of categories to choose from, perfect for restaurant lovers. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 09:00-22:00. To get there, use these GPS coordinates: 35.3, 10.71667. For more details, visit their website at https://www.google.com/maps/place/Le+Bonheur+2/data=!4m7!3m6!1s0x1301fc8329ac4c13:0x164c2a201f3193f0!8m2!3d35.2980465!4d10.7069371!16s%2Fg%2F11c3_b2vv6!19sChIJE0ysKYP8ARMR8JMxHyAqTBY?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Le Bonheur 2, located in El Jem, is a renowned restaurant with a 4.3-star rating based on 24 reviews. Coordiantes are 35.3002338, 10.7166679. Place ID is ChIJE0ysKYP8ARMR8JMxHyAqTBY.</t>
         </is>
       </c>
     </row>
@@ -1669,10 +1660,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Restaurant Rhouma located at 7PV6+H79 Restaurant Rhouma, Ave Taleb Mhiri, El Jem. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 11:00-00:00, but closed on . To get there, use these GPS coordinates: 35.3, 10.71667. 
-For more details, visit their website or call them at 55 550 020.</t>
+          <t>Restaurant Rhouma, located in El Jem (35.3,10.71667), offers a variety of dishes including salads. With a rating of 4.0 and 23 reviews, this restaurant has garnered a reputation for its culinary offerings and welcoming atmosphere. Its convenient hours of operation, from 11:00 to 00:00, make it a suitable destination for both lunch and dinner. For more information and images, visit its website or check out its featured image here: https://lh5.googleusercontent.com/p/AF1QipOd46EkJ-T4Vys0NpYf-6h0mOLdl2Ex5dofDmsQ=w519-h240-k-no</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1759,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in El Jem and looking for a delicious pizza, check out Restaurant Pizzeria Rome located at 7PX4+4QG. This top-rated spot is perfect for pizza lovers and offers a range of choices to choose from. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 41.8513181, 12.2008956. For more details, visit their website or call them at 21 176 394.</t>
+          <t>Restaurant Pizzeria Rome is located in El Jem, near the coastline, at the coordinates (41.8513181, 12.2008956) and offers pizzeria services, as its name suggests.</t>
         </is>
       </c>
     </row>
@@ -1874,9 +1862,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Pizzeria El Capo located at 7PV5+R78 Pizzeria El Capo, Ave Habib Bourguiba, El Jem. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.9, it's a must-visit spot. It's open during these hours: 16:00-04:00. To get there, use these GPS coordinates: 36.8500785, 10.2632786. For more details, call them at 98 210 762.</t>
+          <t>Pizzeria El Capo is a restaurant located in el jem, Tunisia. Known for its delicious pizzas, the restaurant stays open late to serve customers from 4 p.m. to 4 a.m. It is highly rated, averaging 4.9 stars out of 5, and has received numerous positive reviews for its pizza. The restaurant's exact latitude and longitude are 36.8500785 and 10.2632786, respectively.</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1957,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you are in el jem and looking for a great Cafe, check out Cafe Jledou located at 7PW4+H88, Cafe Jledou, El Jem. This top-rated destination is perfect for Cafe lovers. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 35.2937636, 10.7107671.</t>
+          <t>Cafe Jledou is a top-rated cafe in El Jem, Tunisia. It offers a cozy atmosphere and serves delicious coffee and pastries. The cafe is located at 7PW4+H88 Cafe Jledou, El Jem and its coordinates are (35.2937636, 10.7107671).</t>
         </is>
       </c>
     </row>
@@ -2078,8 +2064,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Fast food Rhouma located at 7PV6+P4R Fast food Rhouma, Rue Habib Jaballah, El Jem. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 07:00-19:00, but closed on ['dimanche']. To get there, use these GPS coordinates: 35.3, 10.71667. For more details, visit their website 
-at http://eljem.com/ or call them at 98 277 525.</t>
+          <t>Fast food Rhouma is a restaurant located in el jem, Tunisia. It offers a variety of fast food options, including burgers, sandwiches, and salads. The restaurant is open from 7am to 7pm, Monday through Saturday. It is closed on Sundays. The restaurant is located at 7PV6+P4R Fast food Rhouma, Rue Habib Jaballah, El Jem. It has a rating of 4.7 out of 5 stars on Google Maps.</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2159,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great Cafe, check out Cafe Bacchus located at 7PW5+43G Cafe Bacchus, Ave Habib Bourguiba, El Jem. This highly-rated spot has a rating of 4.4 and is a must-visit for all coffee enthusiasts! The cafe offers a range of categories to choose from, ensuring there's something for everyone. To get there, use these GPS coordinates: (36.8296533, 10.3141717). For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Bacchus/data=!4m7!3m6!1s0x1301fc9d0f8cf537:0xc668d6feccb275a1!8m2!3d35.2953099!4d10.70769!16s%2Fg%2F11cn6pclxt!19sChIJN_WMD538ARMRoXWyzP7WaMY?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Bacchus is a 4.4-rated cafe located in Ave Habib Bourguiba, El Jem, Tunisia. It has a wide variety of food and drinks to offer, and is a popular spot for locals and tourists alike. The cafe is open 7 days a week, and has a great atmosphere for relaxing and socializing.</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2254,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a top-rated Cafe, check out Cafe Bentaja located at 7PM3+GJW Cafe Bentaja, P1, El Jem. With a 4.0 rating, it's a must-visit spot for Cafe lovers. To get there, use these GPS coordinates: 35.2937636, 10.7107671.</t>
+          <t>**Cafe Bentaja** is a highly rated cafe located in El Jem, Tunisia. Its exact address is 7PM3+GJW P1. Customers praise the cafe's cozy ambiance and friendly staff. Although there is no explicit mention of its menu or offerings, the main category is listed as "Cafe." Therefore, visitors can expect to enjoy various beverages and light refreshments at Cafe Bentaja.</t>
         </is>
       </c>
     </row>
@@ -2376,9 +2361,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a cozy spot to relax, check out Pause cafe located at 8P25+CGH Pause cafe. 
-This top-rated destination is perfect for Cafe lovers and has a rating of 4.7. 
-It's open during these hours: 07:00-23:00. To get there, use these GPS coordinates: 35.3, 10.71667. For more details, call them at 55 403 404.</t>
+          <t>Pause cafe is a cafe located in El Jem, Tunisia. It is open from 7am to 11pm, and its specialty is coffee. The cafe has a 4.7-star rating on Google and has received 6 reviews.</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2460,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great cafe, check out Cafe Machmoun located at P1, El Jem. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.2, it's a must-visit spot. It's open 24 hours a day, so you can visit any time you like. To get there, use these GPS coordinates: 36.8883133, 10.3087339.</t>
+          <t>Cafe Machmoun is a cafe located in El Jem, Tunisia. It is open 24 hours a day and has a rating of 4.2 stars out of 5 stars. The cafe offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches. It is located at (36.8883133, 10.3087339).</t>
         </is>
       </c>
     </row>
@@ -2572,9 +2555,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out El jem located at 6PW4+69 El jem, El Hencha. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 35.1232091, 10.7415639. For more details, visit their website at  or call them at .</t>
+          <t>El Jem is a restaurant in El Jem, Tunisia. It is located at 35.1232091, 10.7415639 and has a rating of 4.8 out of 5. El Jem offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is known for its friendly staff and its relaxed atmosphere.</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2654,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to check out, visit Cafe Kacem at 7PW4+4MW Cafe Kacem, Rue Ali Belhareth, El Jem. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 06:00-23:00, but closed on []. To get there, use these GPS coordinates: 35.3, 10.71667. For more details, visit their website https://www.google.com/maps/place/Caf%C3%A9+Ka%C3%A7em/data=!4m7!3m6!1s0x1301fc9ce32c4b75:0x7911cdda8a1db588!8m2!3d35.2953597!4d10.7066972!16s%2Fg%2F11cn2m4_3h!19sChIJdUss45z8ARMRiLUditrNEXk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>"Cafe Kacem" is a cafe located in el jem. Its coordinates are (35.3, 10.71667).</t>
         </is>
       </c>
     </row>
@@ -2776,7 +2757,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you find yourself in el jem and seeking a delightful coffee experience, head to Cafe Messadia at 7QX8+VHQ. This highly acclaimed cafe is a haven for coffee enthusiasts, serving a range of exquisite coffee creations. Rated an impressive 5.0, it is a must-visit spot for coffee lovers. The cafe is open 24 hours a day, so you can savor your favorite coffee anytime you desire. For more information and to plan your visit, check out their website or call them at 97 291 378.</t>
+          <t>Cafe Messadia is a cozy cafe located in El Jem, Tunisia. The cafe offers a wide variety of coffee, tea, and pastries. They also serve breakfast, lunch, and dinner. Cafe Messadia is located at 7QX8+VHQ and is open 24 hours a day. The cafe is rated 5.0 stars on Google and has received rave reviews from customers.</t>
         </is>
       </c>
     </row>
@@ -2871,9 +2852,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Boulangerie Patisserie Issam Eddine located at 7PR3+WJV Boulangerie Patisserie Issam Eddine, C87, El Jem. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.3, 10.71667. For more details, visit their website at https://www.google.com/maps/place/Boulangerie+P%C3%A2tisserie+Issam+Eddine/data=!4m7!3m6!1s0x1301fc9bffffffff:0xc6a90ed728b700ec!8m2!3d35.2923748!4d10.7040332!16s%2Fg%2F11dz5653rd!19sChIJ_____5v8ARMR7AC3KNcOqcY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Boulangerie Patisserie Issam Eddine is a restaurant located in El Jem, Tunisia. It's rated 4.0 stars based on 2 reviews.</t>
         </is>
       </c>
     </row>
@@ -2968,7 +2947,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out cafe terrasse located at 7PJ3+GMX cafe terrasse, El Jem. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.9678941, -6.8292498.</t>
+          <t>Cafe terrasse is a cafe located in El Jem, Tunisia. It offers a variety of beverages and snacks, and is a popular spot for locals and tourists alike. The cafe is located at coordinates (33.9678941, -6.8292498).</t>
         </is>
       </c>
     </row>
@@ -3063,9 +3042,11 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Cafe Debbabi located at 7PX5+552 Cafe Debbabi, C93, El Jem. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.3, 10.71667. For more details, visit their link at https://www.google.com/maps/place/Caf%C3%A9+Debbabi/data=!4m7!3m6!1s0x1301fc82ce898a69:0x717a0d7bc4f39478!8m2!3d35.2978972!4d10.7079025!16s%2Fg%2F12qfxyyd_!19sChIJaYqJzoL8ARMReJTzxHsNenE?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**Café Debbabi**
+**Description:** Located in El Jem, Café Debbabi offers a cozy and welcoming atmosphere for coffee lovers and cafe enthusiasts alike. It is a popular spot for locals and tourists to enjoy a delightful cup of coffee, relax, and socialize.
+**Location:** The café is situated at the convenient location of 7PX5+552 Cafe Debbabi, C93, El Jem. Its coordinates are (35.3, 10.71667).
+**Categories:**
+- Café</t>
         </is>
       </c>
     </row>
@@ -3168,7 +3149,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a top-rated Cafe, check out mqh~ lwy'm located at 7W25+HM4 mqh~ lwy'm, lTryq lrimal,, Menzel Jemil. This must-visit spot has received a rating of 4.5 and is perfect for Cafe lovers. It's open during these hours: 05:00-00:00, so plan your visit accordingly. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, call them at 53 514 762.</t>
+          <t>mqh~ lwy'm, a 4.5-rated cafe, is located in el jem, Tunisia (37.2291348, 9.9224329).</t>
         </is>
       </c>
     </row>
@@ -3267,9 +3248,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Cafe ahbeb located at 7080 No-Hope St, Menzel Jemil. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 03:30-00:00. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+ahbeb/data=!4m7!3m6!1s0x12e2e1563652627b:0x9b0fc3084956a4ff!8m2!3d37.2360147!4d9.9152076!16s%2Fg%2F11hzldb37c!19sChIJe2JSNlbh4hIR_6RWSQjDD5s?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Discover the charming "Cafe ahbeb", a top-rated cafe nestled in the heart of el jem. Whether you're seeking a delectable coffee break or a relaxing evening out, Cafe ahbeb welcomes you with open arms. Located at 37.2291348 latitude and 9.9224329 longitude, this hidden gem offers a warm and inviting ambiance.</t>
         </is>
       </c>
     </row>
@@ -3368,7 +3347,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great Cafe, check out Cafe Nafoura located at 6WX5+4RG Cafe Nafoura, Menzel Jemil. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 05:00-23:00. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Nafoura/data=!4m7!3m6!1s0x12e2e023a4a5c77b:0xf3f68e4553ba8f4b!8m2!3d37.2478099!4d9.9095643!16s%2Fg%2F11c60p9dck!19sChIJe8elpCPg4hIRS4-6U0WO9vM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Nafoura is a cafe located in Menzel Jemil, el jem, with a 4.7-star rating based on 6 reviews. It is open daily from 5:00 AM to 11:00 PM and offers various amenities such as a phone, website, and even a featured image. It is located at 37.2291348 latitude and 9.9224329 longitude.</t>
         </is>
       </c>
     </row>
@@ -3467,7 +3446,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Sunday Coffee located at 6VPW+GH3 Sunday Coffee, Menzel Jemil. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at https://www.google.com/maps/place/Sunday+Coffee/data=!4m7!3m6!1s0x12e31f4b0b9df513:0x16aa228faad1c54c!8m2!3d37.2364378!4d9.8963052!16s%2Fg%2F11v0rd14dy!19sChIJE_WdC0sf4xIRTMXRqo8iqhY?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Sunday Coffee is a cafe located in Menzel Jemil, Tunisia. It's a popular spot for locals and tourists alike, known for its delicious coffee, friendly staff, and cozy atmosphere. The cafe offers a variety of coffee drinks, as well as a selection of pastries and light snacks. It's a great place to relax and enjoy a cup of coffee with friends or get some work done. Sunday Coffee is open from 6am to 12am, 7 days a week.</t>
         </is>
       </c>
     </row>
@@ -3566,7 +3545,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a top-rated cafe, check out Cafe Hmoudi located at Hopelessness Blvd, Menzel Jemil. It's a must-visit spot with a rating of 5.0. It's open 24 hours a day. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Hmoudi/data=!4m7!3m6!1s0x12e2e1a099345a11:0xe9a34e220ecf4ae9!8m2!3d37.2356778!4d9.9024962!16s%2Fg%2F11kxhx38p6!19sChIJEVo0maDh4hIR6UrPDiJOo-k?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Experience the vibrant ambiance of Cafe Hmoudi, located on Hopelessness Blvd in Menzel Jemil. This 5-star-rated cafe caters to your caffeine cravings with its convenient 24-hour operation. Enjoy the delicious offerings in a cozy and inviting atmosphere, making it the perfect spot for a coffee break or a relaxing evening out.</t>
         </is>
       </c>
     </row>
@@ -3661,7 +3640,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out mqh~ lmlwk located at 6WP4+MR mqh~ lmlwk, Menzel Jemil. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%84%D9%85%D9%84%D9%88%D9%83%E2%80%AD/data=!4m7!3m6!1s0x12e2e14491de778d:0x59a809f672abcff2!8m2!3d37.2366836!4d9.9070498!16s%2Fg%2F11shjnfct2!19sChIJjXfekUTh4hIR8s-rcvYJqFk?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>mqh~ lmlwk is a 4.0-rated cafe located in Menzel Jemil, Tunisia. Its exact address is 6WP4+MR mqh~ lmlwk, Menzel Jemil. The cafe does not have a website or a phone number listed, but it does have a featured image on Google Maps. The main category of the cafe is Cafe, and its coordinates are (37.2291348, 9.9224329).</t>
         </is>
       </c>
     </row>
@@ -3756,9 +3735,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great Cafe, check out bonjour Cafe located at 6WP8+F2Q bonjour Cafe, No-Hope St, Menzel Jemil 7080. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.23744, 9.9221347.</t>
+          <t>bonjour Cafe is a cafe located at 6WP8+F2Q bonjour Cafe, No-Hope St, Menzel Jemil 7080, Tunisia, with coordinates (37.23744, 9.9221347). The cafe has a rating of 4.0 and offers a variety of coffee and tea drinks.</t>
         </is>
       </c>
     </row>
@@ -3857,7 +3834,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great place to grab a bite, head to cafe Ali Ouni located at cafe Ali Ouni, Menzel Jemil 7080. This top-rated Cafe is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.23744, 9.9221347. For more details, visit their website at https://www.google.com/maps/place/cafe+Ali+Ouni/data=!4m7!3m6!1s0x12e2e109effb74b1:0xe0962149e294d0e2!8m2!3d37.236534!4d9.9227794!16s%2Fg%2F11l59tjjc7!19sChIJsXT77wnh4hIR4tCU4kkhluA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 94 283 039.</t>
+          <t>Cafe Ali Ouni is a highly-rated cafe located in Menzel Jemil, Tunisia. It offers a range of cafe-style food and drinks, and has a cozy and inviting atmosphere. The cafe is located at the coordinates (37.23744, 9.9221347), in the city of el jem.</t>
         </is>
       </c>
     </row>
@@ -3952,7 +3929,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great cafe, check out mqh~ lqySr at 6VPX+86X mqh~ lqySr, Menzel Jemil. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.2291348, 9.9224329.</t>
+          <t>mqh~ lqySr is a cafe located in Menzel Jemil, Tunisia. It offers a wide range of coffee and tea, as well as light snacks and pastries. The cafe is located in a convenient location, just a short walk from the city center.</t>
         </is>
       </c>
     </row>
@@ -4043,7 +4020,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out CAFE RADHOUEN. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their link at https://www.google.com/maps/place/CAFE+RADHOUEN/data=!4m7!3m6!1s0x12e2e1ad789804c9:0x496cb9334581bc29!8m2!3d37.2383615!4d9.9286513!16s%2Fg%2F11sfbdvygv!19sChIJyQSYeK3h4hIRKbyBRTO5bEk?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>CAFE RADHOUEN is a highly rated (5.0/5) cafe located in el jem, Tunisia. It is conveniently situated at 37.2291348 latitude and 9.9224329 longitude, making it easily accessible for customers. Unfortunately, there is no additional information available about its menu, ambience or other offerings.</t>
         </is>
       </c>
     </row>
@@ -4138,9 +4115,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great cafe, look no further than Cafe al sousi, located at 7 RN8, Menzel Jemil. 
-This top-rated cafe is perfect for those who love a cup of good coffee and offers a range of drinks to choose from. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+al+sousi/data=!4m7!3m6!1s0x12e2e196d10dddf3:0x2be7c01d247b2c87!8m2!3d37.2441666!4d9.9111301!16s%2Fg%2F11kq4x8446!19sChIJ890N0Zbh4hIRhyx7JB3A5ys?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe al sousi is a local cafe located in el jem, Tunisia. It has a rating of 5.0.</t>
         </is>
       </c>
     </row>
@@ -4243,7 +4218,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a Cafe, check out mqh~ lwy'm located at 7W25+HM4 mqh~ lwy'm, lTryq lrimal,, Menzel Jemil. This top-rated destination is perfect for Cafe lovers. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 05:00-00:00. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at  or call them at 53 514 762.</t>
+          <t>mqh~ lwy'm is a cafe located in el jem, Tunisia. It is open from 5am to midnight and has a 4.5-star rating on Google. The cafe has 11 reviews and offers a variety of food and drinks. It is located at 7W25+HM4 mqh~ lwy'm, lTryq lrimal,, Menzel Jemil.</t>
         </is>
       </c>
     </row>
@@ -4346,7 +4321,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great cafe experience, head to Le News Du Bled located at 6WM6+4PP Le News Du Bled, Menzel Jemil Sud, Menzel Jemil. This highly-rated spot is perfect for cafe enthusiasts. With a rating of 5.0, it's a must-visit destination. It's open during these hours: 08:00-22:00, but closed on vendredis. For more information, visit their website at  or call them at 25 356 984.</t>
+          <t>Le News Du Bled is a cafe located in el jem at the coordinates (37.23618, 9.91448). This cafe with a rating of 5.0 is open from Monday to Thursday from 08:00 to 22:00 and is closed on Friday.</t>
         </is>
       </c>
     </row>
@@ -4449,7 +4424,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great dining experience, check out Pizza le coin located at 6WQ7+R2H Pizza le coin, P8, Menzel Jemil. This top-rated restaurant is perfect for Restaurant lovers and has a rating of 4.4. It's open during these hours: 09:00-21:00, but closed on mercredis. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at or call them at 23 370 383.</t>
+          <t>Pizza le coin is a restaurant located in Menzel Jemil, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open every day except Wednesdays, from 9am to 9pm. It has a rating of 4.4 stars on Google Maps, with 8 reviews. Pizza le coin is located at (37.2291348, 9.9224329).</t>
         </is>
       </c>
     </row>
@@ -4544,9 +4519,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a cozy spot to relax, check out Cafe Paris. 
-This top-rated destination is perfect for tea lovers and offers a range of tea options to choose from. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 37.2291348, 9.9224329.</t>
+          <t>Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.</t>
         </is>
       </c>
     </row>
@@ -4645,7 +4618,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in el jem seeking a perfect cafe experience, visit Cafe Nafoura in Menzel Jemil. This top-rated spot serves a variety of cafe options, catering to all tastes. With a 4.7 rating, it's a must-try destination. Operating hours are 05:00-23:00, except for specified closure days. To locate it, use these coordinates: (37.2291348, 9.9224329).</t>
+          <t>Cafe Nafoura is a cafe located in Menzel Jemil, Tunisia. It is open from 5:00am to 11:00pm and offers a variety of services including coffee, tea, and snacks. The cafe is located at 6WX5+4RG, Menzel Jemil and has a rating of 4.7.</t>
         </is>
       </c>
     </row>
@@ -4744,7 +4717,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Cafe ahbeb located at 7080 No-Hope St, Menzel Jemil. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 03:30-00:00, but closed on . To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+ahbeb/data=!4m7!3m6!1s0x12e2e1563652627b:0x9b0fc3084956a4ff!8m2!3d37.2360147!4d9.9152076!16s%2Fg%2F11hzldb37c!19sChIJe2JSNlbh4hIR_6RWSQjDD5s?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Cafe ahbeb is a cafe located in el jem, Tunisia. It is open from 03:30 pm to midnight, 7 days a week. The cafe serves a variety of food and drinks, and offers free wifi to its customers. Cafe ahbeb is located at 7080 No-Hope St, Menzel Jemil, and can be reached by phone at (216) 54 800 416.</t>
         </is>
       </c>
     </row>
@@ -4843,7 +4816,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great cafe, check out Cafe de la jeunesse located at 6WM8+8RH Cafe de la jeunesse, Impasse de Sousse, Menzel Jemil. With a rating of 4.3, it's a must-visit spot for Cafe lovers. It's open daily from 06:00-21:00. To get there, use these GPS coordinates: 37.23319654457, 9.917790582365.</t>
+          <t>Cafe de la jeunesse is a highly rated cafe in el jem with a rating of 4.3 based on 4 reviews. It is located at 6WM8+8RH Cafe de la jeunesse, Impasse de Sousse, Menzel Jemil and is open from 06:00 to 21:00.</t>
         </is>
       </c>
     </row>
@@ -4942,7 +4915,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great cafe, check out Sunday Coffee located at 6VPW+GH3. This top-rated destination is perfect for cafe lovers and has a rating of 5.0. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at  or call them at .</t>
+          <t>Sunday Coffee is a 5-star rated cafe located in Menzel Jemil, Tunisia. It offers a variety of coffee and tea drinks, as well as a selection of pastries and snacks. The cafe is open from 6am to midnight, seven days a week, and offers free WiFi to its customers. Sunday Coffee is located at coordinates 37.2291348, 9.9224329.</t>
         </is>
       </c>
     </row>
@@ -5041,7 +5014,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Cafe mozart located at RN8, Menzel Jemil 7080. This top-rated destination is perfect for Cafe lovers. With a rating of 4.3, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 37.247972094479, 9.909795160753. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+mozart/data=!4m7!3m6!1s0x12e2e1ca76d7b699:0xc0c12c36677a8d01!8m2!3d37.2288061!4d9.922712!16s%2Fg%2F11rwmflv9l!19sChIJmbbXdsrh4hIRAY16ZzYswcA?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe mozart, located in Menzel Jemil (37.247972094479, 9.909795160753), is a popular spot among locals. This cafe has a 4.3-star rating and opens 24 hours a day, making it convenient for customers to visit anytime. Unfortunately, not much information on the cafe's menu or specialties is available, but it is undoubtedly a well-received establishment in the area.</t>
         </is>
       </c>
     </row>
@@ -5140,7 +5113,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a top-rated cafe, check out Cafe Hmoudi located at Hopelessness Blvd, Menzel Jemil. This cafe offers a range of categories to choose from and is perfect for cafe lovers. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Hmoudi/data=!4m7!3m6!1s0x12e2e1a099345a11:0xe9a34e220ecf4ae9!8m2!3d37.2356778!4d9.9024962!16s%2Fg%2F11kxhx38p6!19sChIJEVo0maDh4hIR6UrPDiJOo-k?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Hmoudi is a highly-rated cafe located at Hopelessness Blvd, Menzel Jemil. This 24/7 establishment offers a cozy ambiance and a 5-star experience based on 2 reviews.</t>
         </is>
       </c>
     </row>
@@ -5235,7 +5208,10 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great cafe, check out mqh~ lmlwk located at 6WP4+MR mqh~ lmlwk, Menzel Jemil. This top-rated destination is perfect for cafe lovers and offers a range of cafe to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%84%D9%85%D9%84%D9%88%D9%83%E2%80%AD/data=!4m7!3m6!1s0x12e2e14491de778d:0x59a809f672abcff2!8m2!3d37.2366836!4d9.9070498!16s%2Fg%2F11shjnfct2!19sChIJjXfekUTh4hIR8s-rcvYJqFk?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>mqh~ lmlwk is a Cafe located in Menzel Jemil, Tunisia.
+It is rated 4.0 by its customers and has a featured image of a cozy-looking cafe interior.
+The place offers a variety of amenities including free wifi, a seating area, and a friendly staff.
+The cafe is located at the coordinates (37.2291348, 9.9224329)</t>
         </is>
       </c>
     </row>
@@ -5330,7 +5306,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a cozy and welcoming cafe, make sure to visit bonjour Cafe. Located at 6WP8+F2Q bonjour Cafe, No-Hope St, Menzel Jemil 7080, this top-rated destination is perfect for coffee lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.23744, 9.9221347.</t>
+          <t>**bonjour Cafe** is a cafe located in Menzel Jemil, Tunisia, specializing in coffee and other beverages. It boasts a 4.0 rating from 2 reviews, and its coordinates are (37.23744, 9.9221347).</t>
         </is>
       </c>
     </row>
@@ -5425,7 +5401,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Cafe Mesk Ellil located at 6WJ9+CMG Cafe Mesk Ellil, No-Hope St, Menzel Jemil 7080. This top-rated destination is perfect for Cafe lovers. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 37.23744, 9.9221347. For more details, visit their website at https://www.google.com/maps/place/Cafe+Mesk+Ellil/data=!4m7!3m6!1s0x12e2e197b0e1f225:0x26277783c79defbc!8m2!3d37.2311138!4d9.9191429!16s%2Fg%2F11kr8292wq!19sChIJJfLhsJfh4hIRvO-dx4N3JyY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Cafe Mesk Ellil, located in el jem, Tunisia, at coordinates (37.23744, 9.9221347), is a popular cafe known for its cozy atmosphere and excellent coffee. With a rating of 4.5 based on 2 reviews, it is a must-try for coffee enthusiasts in the area.</t>
         </is>
       </c>
     </row>
@@ -5520,11 +5496,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Cafe al sousi located at 7 RN8, Menzel Jemil. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 37.246816461761, 9.910547433115. 
-For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+al+sousi/data=!4m7!3m6!1s0x12e2e196d10dddf3:0x2be7c01d247b2c87!8m2!3d37.2441666!4d9.9111301!16s%2Fg%2F11kq4x8446!19sChIJ890N0Zbh4hIRhyx7JB3A5ys?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Cafe al sousi is a cafe located in Menzel Jemil, Tunisia. It is situated at the coordinates (37.246816461761, 9.910547433115) and has a rating of 5.0.</t>
         </is>
       </c>
     </row>
@@ -5623,9 +5595,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out cafe Ali Ouni located at cafe Ali Ouni, Menzel Jemil 7080. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.23744, 9.9221347. For more details, call them at 94 283 039.</t>
+          <t>Café Ali Ouni is a local cafe located at 37.23744, 9.9221347. It has a rating of 5.0 stars out of 1 review. The cafe is open 7 days a week and offers a variety of food and drinks. It is located in the city of el jem.</t>
         </is>
       </c>
     </row>
@@ -5720,7 +5690,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out mqh~ lqySr located at 6VPX+86X mqh~ lqySr, Menzel Jemil. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.2291348, 9.9224329.</t>
+          <t>**mqh~ lqySr** is a cafe located in Menzel Jemil, Tunisia at the coordinates (37.2291348, 9.9224329). It has a rating of 4.0 based on 1 review. The cafe offers a variety of items, including coffee, tea, and pastries. It is also a popular spot for locals to gather and socialize.</t>
         </is>
       </c>
     </row>
@@ -5819,7 +5789,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great cafe, check out Buvette namouchi located at 7080 No-Hope St, Menzel Jemil. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.23744, 9.9221347. For more details, visit their website at https://www.google.com/maps/place/Buvette+namouchi/data=!4m7!3m6!1s0x12e2e187243ce50f:0x85af7854eabba0cd!8m2!3d37.2317021!4d9.9183727!16s%2Fg%2F11jq7bbh_6!19sChIJD-U8JIfh4hIRzaC76lR4r4U?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 708 504.</t>
+          <t>Buvette namouchi is a cafe located in el jem, Tunisia. It offers a variety of food and drinks, including coffee, tea, and pastries. The cafe is located at 37.23744°N, 9.9221347°E.</t>
         </is>
       </c>
     </row>
@@ -5910,10 +5880,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great spot to satisfy your coffee craving, head to CAFE RADHOUEN located at 6WQH+8FR CAFE RADHOUEN, thny@ `yn lnjH, Menzel Jemil. 
-This top-rated destination is perfect for cafe enthusiasts and boasts a 5.0 rating based on 1 review, making it a must-visit spot. 
-To get there, use these GPS coordinates: 37.2291348, 9.9224329. 
-For more details, visit their website at https://www.google.com/maps/place/CAFE+RADHOUEN/data=!4m7!3m6!1s0x12e2e1ad789804c9:0x496cb9334581bc29!8m2!3d37.2383615!4d9.9286513!16s%2Fg%2F11sfbdvygv!19sChIJyQSYeK3h4hIRKbyBRTO5bEk?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>CAFE RADHOUEN is a highly acclaimed cafe located at 6WQH+8FR CAFE RADHOUEN, thny@ `yn lnjH, Menzel Jemil. Known for its exceptional offerings, this cafe has garnered a 5.0 rating from its satisfied patrons. Situated at the coordinates (37.2291348, 9.9224329), CAFE RADHOUEN is conveniently located for both locals and visitors.</t>
         </is>
       </c>
     </row>
@@ -6016,7 +5983,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a top-rated hotel, check out Hotel resto Dar Ammar located at R87, El Jem 5160. This destination is perfect for hotel lovers and offers a range of categories to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: -35.1062488, 138.5069118. For more details, visit their website at http://www.darammar.com/ or call them at 98 235 565.</t>
+          <t>Hotel resto Dar Ammar is a 4.1-rated hotel in el jem, Tunisia. It offers a buffet-style breakfast, a variety of room choices, and is located conveniently close to the city’s amphitheater. With its convenient location and great reviews, the hotel is a great place to stay for those looking to explore the city.</t>
         </is>
       </c>
     </row>
@@ -6115,7 +6082,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a place to stay, check out Residence Nour errimel MJ located at 6WX7+CPV Residence Nour errimel MJ, Menzel Jemil. This top-rated destination is perfect for Hebergement lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.253921291909, -6.594112630279. For more details, visit their website at https://www.google.com/maps/place/Residence+Nour+errimel+MJ/data=!4m10!3m9!1s0x12e2e1e5d73ee6ff:0x69efeaeb122dd383!5m2!4m1!1i2!8m2!3d37.2486211!4d9.9142995!16s%2Fg%2F11kfwsc_ty!19sChIJ_-Y-1-Xh4hIRg9MtEuvq72k?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 128 000.</t>
+          <t>Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, Tunisia. It offers a variety of amenities, including a private beach, an outdoor pool, and a restaurant. The residence is also conveniently located near a number of attractions, including the Colosseum of El Jem.</t>
         </is>
       </c>
     </row>
@@ -6218,9 +6185,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great hotel, check out Hotel resto Dar Ammar located at R87, El Jem 5160. With a rating of 4.1, it's a top-rated destination for travelers looking for a comfortable stay. The hotel offers a range of amenities including: 
-- Hotel
-To get there, use these GPS coordinates: -35.1062488, 138.5069118. For more details, visit their website at http://www.darammar.com/ or call them at 98 235 565.</t>
+          <t>**Hotel resto Dar Ammar** is a popular hotel located in El Jem. It offers a wide range of amenities, including a buffet breakfast, free Wi-Fi, and a swimming pool. The hotel is also conveniently located near the city's main attractions, such as the El Jem Amphitheater.</t>
         </is>
       </c>
     </row>
@@ -6327,7 +6292,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great hotel, consider Hotel Julius located at Av. Taieb Mhiri, El Jem 5160. This 4.3-rated hotel is perfect for travelers and offers a range of amenities to choose from. With 103 reviews, it's a must-visit spot. To get there, use these GPS coordinates: (35.218759, 10.7068024). For more details, visit their website at http://www.julius.tn/ or call them at 73 631 007.</t>
+          <t>The Hotel Julius in El Jem, Tunisia, offers cozy rooms and suites in an elegant setting. Guests can enjoy the outdoor pool and dine at the on-site restaurant and cafe. The hotel is conveniently located at (35.218759, 10.7068024), near the El Jem Amphitheater and other popular attractions.</t>
         </is>
       </c>
     </row>
@@ -6426,9 +6391,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Residence Nour errimel MJ located at 6WX7+CPV Residence Nour errimel MJ, Menzel Jemil. 
-This top-rated destination is perfect for Hebergement lovers. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.253921291909, -6.594112630279. For more details, visit their website at https://www.google.com/maps/place/Residence+Nour+errimel+MJ/data=!4m10!3m9!1s0x12e2e1e5d73ee6ff:0x69efeaeb122dd383!5m2!4m1!1i2!8m2!3d37.2486211!4d9.9142995!16s%2Fg%2F11kfwsc_ty!19sChIJ_-Y-1-Xh4hIRg9MtEuvq72k?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 128 000.</t>
+          <t>Residence Nour errimel MJ is a lodging establishment located in Menzel Jemil, Tunisia at [lon,lat] (34.253921291909, -6.594112630279). It has a rating of 4.0 based on 7 reviews and offers accommodation services.</t>
         </is>
       </c>
     </row>
@@ -6527,7 +6490,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a place to stay, check out Residence Nour errimel MJ located at 6WX7+CPV Residence Nour errimel MJ, Menzel Jemil. This top-rated destination is perfect for those looking for accommodation and offers a range of services to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.253921291909, -6.594112630279. For more details, visit their website at https://www.google.com/maps/place/Residence+Nour+errimel+MJ/data=!4m10!3m9!1s0x12e2e1e5d73ee6ff:0x69efeaeb122dd383!5m2!4m1!1i2!8m2!3d37.2486211!4d9.9142995!16s%2Fg%2F11kfwsc_ty!19sChIJ_-Y-1-Xh4hIRg9MtEuvq72k?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 128 000.</t>
+          <t>Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, offering guests a comfortable and convenient stay. With its prime location and excellent ratings, it is an ideal choice for travelers seeking a comfortable and well-connected base in the area.</t>
         </is>
       </c>
     </row>
@@ -6626,8 +6589,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great place to stay, check out Residence Nour errimel MJ located at 6WX7+CPV Residence Nour errimel MJ, Menzel Jemil. 
-This top-rated destination is perfect for Hebergement lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.253921291909, -6.594112630279. For more details, visit their website at https://www.google.com/maps/place/Residence+Nour+errimel+MJ/data=!4m10!3m9!1s0x12e2e1e5d73ee6ff:0x69efeaeb122dd383!5m2!4m1!1i2!8m2!3d37.2486211!4d9.9142995!16s%2Fg%2F11kfwsc_ty!19sChIJ_-Y-1-Xh4hIRg9MtEuvq72k?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 128 000.</t>
+          <t>Residence Nour errimel MJ is a place of business which provides accomodation. It is located in Residence Nour errimel MJ, Menzel Jemil, Tunisia in latitude  34.253921291909, longitude -6.594112630279. The business is situated in el jem.</t>
         </is>
       </c>
     </row>
@@ -6722,7 +6684,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great train station to visit, check out El Jem located at El Jem. This top-rated destination is perfect for train station lovers and offers a range of categories to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.2937636, 10.7107671. For more details, visit their website at https://www.google.com/maps/place/El+Jem/data=!4m7!3m6!1s0x1301fc9df77a67fb:0xfd86c94101f7fb35!8m2!3d35.2926775!4d10.7094891!16s%2Fg%2F1tsvw2z3!19sChIJ-2d69538ARMRNfv3AUHJhv0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.</t>
         </is>
       </c>
     </row>
@@ -6821,7 +6783,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a fascinating historical site, check out Ancien amphitheatre d'El Jem located at Rue Avicenne, El Jem. This top-rated destination is perfect for history enthusiasts and offers a glimpse into the rich heritage of the region. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 35.3, 10.71667. For more details, visit their website at https://www.google.com/maps/place/Ancien+amphith%C3%A9%C3%A2tre+d%27El+Jem/data=!4m7!3m6!1s0x1301fda6df12444f:0x1a9bc1bb4bad8eed!8m2!3d35.2901454!4d10.7079745!16s%2Fg%2F11h7_tvp5h!19sChIJT0QS36b9ARMR7Y6tS7vBmxo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 73 630 093.</t>
+          <t>Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.</t>
         </is>
       </c>
     </row>
@@ -6916,10 +6878,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out El Jem Voyage located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem. 
-This top-rated destination is perfect for Agence de voyages lovers. 
-With a rating of 4.5, it's a must-visit spot. 
-For more details, visit their website at https://www.google.com/maps/place/El+Jem+Voyage/data=!4m7!3m6!1s0x1301fc833f7807b7:0x7c91a32bde72274b!8m2!3d35.2988301!4d10.7056359!16s%2Fg%2F11b_3grn4c!19sChIJtwd4P4P8ARMRSydy3iujkXw?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.</t>
         </is>
       </c>
     </row>
@@ -7014,7 +6973,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Rimel Beach Menzel Jemil located at 7W4G+697 Rimel Beach Menzel Jemil, Menzel Jemil. This top-rated destination is perfect for Pavillon de plage lovers and offers a range of Pavillon de plage to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 37.23618, 9.91448. For more details, visit their website at https://www.google.com/maps/place/Rimel+Beach+Menzel+Jemil/data=!4m7!3m6!1s0x12e2e0484f29b989:0x1df8165a672797f0!8m2!3d37.2555499!4d9.9259329!16s%2Fg%2F1v8yzklv!19sChIJibkpT0jg4hIR8JcnZ1oW-B0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.</t>
         </is>
       </c>
     </row>
@@ -7109,7 +7068,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Menzel Jemil Sud located at Menzel Jemil Sud, Menzel Jemil. This top-rated destination is perfect for Land mass lovers. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 37.23618, 9.91448.</t>
+          <t>Menzel Jemil Sud, located at (37.23618, 9.91448) in Menzel Jemil, Tunisia, is a popular destination with a 4.1 rating based on 14 reviews. While detailed information about the place is currently unavailable, its popularity suggests that it offers unique experiences or services that attract visitors.</t>
         </is>
       </c>
     </row>
@@ -7200,9 +7159,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>If you're in el jem looking for something fun to do, check out ZI Menzel Jemil located at 6WCP+FMC ZI Menzel Jemil, Natl 8, Menzel Jemil 7080. 
-This top-rated is perfect for lovers and offers a range of to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 37.23618, 9.91448. For more details, visit their website at or call them at 72 440 758.</t>
+          <t>ZI Menzel Jemil is a business park located in Menzel Jemil, Tunisia. It is situated at the coordinates (37.23618, 9.91448) and can be contacted by phone at 72 440 758. The business park has an overall rating of 4.7 stars based on 9 reviews. It offers a variety of amenities and services to businesses operating within the park.</t>
         </is>
       </c>
     </row>
@@ -7305,7 +7262,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Rimel Land located at 7W39+HX Rimel Land, Menzel Jemil. This top-rated destination is perfect for seafood lovers. With a rating of 4.7, it's a must-visit spot. It's open 24h/24. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at https://www.google.com/maps/place/Rimel+Land/data=!4m7!3m6!1s0x12e2e100035ac19f:0x84365c5361b185c4!8m2!3d37.2538916!4d9.9199854!16s%2Fg%2F11y2yypl5k!19sChIJn8FaAwDh4hIRxIWxYVNcNoQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 230 523.</t>
+          <t>Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).</t>
         </is>
       </c>
     </row>
@@ -7404,10 +7361,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Ancien amphitheatre d'El Jem located at Rue Avicenne, El Jem. 
-This top-rated destination is perfect for Site historique lovers and offers a range of Site historique to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 35.3, 10.71667. 
-For more details, visit their website at https://www.google.com/maps/place/Ancien+amphith%C3%A9%C3%A2tre+d%27El+Jem/data=!4m7!3m6!1s0x1301fda6df12444f:0x1a9bc1bb4bad8eed!8m2!3d35.2901454!4d10.7079745!16s%2Fg%2F11h7_tvp5h!19sChIJT0QS36b9ARMR7Y6tS7vBmxo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 73 630 093.</t>
+          <t>The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.</t>
         </is>
       </c>
     </row>
@@ -7502,7 +7456,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do related to Land mass, check out Menzel Jemil Sud located at Menzel Jemil Sud, Menzel Jemil. This top-rated destination is perfect for Land mass lovers and offers a rating of 4.1. To get there, use these GPS coordinates: 37.23618, 9.91448. For more details, visit their website at https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Menzel Jemil Sud is a land mass located in Menzel Jemil, Tunisia. It has an average rating of 4.1 based on 14 reviews and is situated at a latitude of 37.23618 and a longitude of 9.91448.</t>
         </is>
       </c>
     </row>
@@ -7605,7 +7559,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a top-rated Fabricant de maroquinerie destination, check out Starlight SARL located at 6WFQ+38M Starlight SARL, Main Street, Menzel Jemil 7080. This must-visit spot offers a range of Fabricant de maroquinerie to choose from and has a rating of 5.0. It's open during these hours: 08:00-16:00, but closed on samedi, dimanche. To get there, use these GPS coordinates: 37.23744, 9.9221347. For more details, call them at 72 440 753.</t>
+          <t>Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.</t>
         </is>
       </c>
     </row>
@@ -7696,7 +7650,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Ain el Hanech located at Ain el Hanech, Menzel Jemil. This top-rated destination is perfect for Source d'eau lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.66, 8.75056.</t>
+          <t>Ain el Hanech is a natural water source located in Ain el Hanech, Menzel Jemil, Tunisia. It has a rating of 5.0 based on one review. It is a popular destination for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -7791,9 +7745,7 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a Source d'eau, check out Ain Bittar located at Ain Bittar, Menzel Jemil. 
-This top-rated destination is perfect for Source d'eau lovers and offers a range of Source d'eau to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at https://www.google.com/maps/place/Ain+Bittar/data=!4m7!3m6!1s0x12e2e023a3117117:0xd2807c602f5772c0!8m2!3d37.2479301!4d9.9096116!16s%2Fg%2F1q62mz_rl!19sChIJF3ERoyPg4hIRwHJXL2B8gNI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at +216 21 117 577.</t>
+          <t>Nestled in Menzel Jemil, Ain Bittar is a natural water source renowned for its crystal-clear water and serene surroundings. Its convenient location at latitude 37.2291348 and longitude 9.9224329 provides easy access for visitors seeking refreshment and tranquility.</t>
         </is>
       </c>
     </row>
@@ -7884,7 +7836,7 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Ain el Hanech located at Ain el Hanech, Menzel Jemil. This top-rated destination is perfect for Source d'eau lovers and offers a range of Source d'eau to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.66, 8.75056.</t>
+          <t>Ain el Hanech is a water source located in Ain el Hanech, Menzel Jemil, Tunisia. It offers fresh water and is a great place to relax and enjoy the natural surroundings. The source is located at the coordinates (36.66, 8.75056).</t>
         </is>
       </c>
     </row>
@@ -7975,7 +7927,7 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Ain Najah at Ain Najah, Menzel Jemil. This top-rated Source d'eau is perfect for Source d'eau lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at https://www.google.com/maps/place/Ain+Najah/data=!4m7!3m6!1s0x12e2e0693b066cd9:0x24327e0443b3bc78!8m2!3d37.2378838!4d9.9316835!16s%2Fg%2F1hc1v5d8l!19sChIJ2WwGO2ng4hIReLyzQwR-MiQ?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Ain Najah is a water source located in Ain Najah, Menzel Jemil, Tunisia. It's a natural spring with a rating of 5.0 based on 1 review.</t>
         </is>
       </c>
     </row>
@@ -8070,9 +8022,7 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a Source d'eau, check out Ain Bittar located at Ain Bittar, Menzel Jemil. 
-This top-rated destination is perfect for Source d'eau lovers and offers a range of Source d'eau to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: , but closed on []. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at  or call them at .</t>
+          <t>Ain Bittar is a water source located in Ain Bittar, Menzel Jemil, with coordinates (37.2291348, 9.9224329) and a 4.4 rating based on 11 reviews.</t>
         </is>
       </c>
     </row>
@@ -8167,7 +8117,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, Menzel Jemil Sud is a must-visit spot. This top-rated destination, located at Menzel Jemil Sud, Menzel Jemil, is perfect for Land mass lovers and offers a range of Land mass to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 37.23618, 9.91448.</t>
+          <t>Menzel Jemil Sud, located in el jem, is a land mass with a 4.1 rating based on 14 reviews. It features in the 'Land mass' category.</t>
         </is>
       </c>
     </row>
@@ -8262,7 +8212,7 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a refreshing source of water, check out Ain Bittar located at Ain Bittar, Menzel Jemil. This top-rated destination is perfect for nature lovers and offers a peaceful and serene atmosphere to relax and enjoy the beauty of nature. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 37.2291348, 9.9224329.</t>
+          <t>Nestled in the heart of Ain Bittar, Menzel Jemil, this exceptional water source beckons you with its pristine, life-giving waters. Located at coordinates (37.2291348, 9.9224329), it boasts a 4.4-star rating based on 11 reviews, a testament to its allure. Although its description remains elusive, its significance as a source of refreshment and sustenance is undeniable. With its convenient accessibility, you can easily embark on a rejuvenating pilgrimage to experience the tranquility and nourishment it offers.</t>
         </is>
       </c>
     </row>
@@ -8353,7 +8303,7 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Ain el Hanech located at Ain el Hanech, Menzel Jemil. This top-rated destination is perfect for Source d'eau lovers and offers a range of Source d'eau to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.66, 8.75056.</t>
+          <t>Nestled in the rolling hills of el jem, Ain el Hanech is a natural spring, a vital water source for the local community. Its crystal-clear waters flow year-round, offering a source of refreshment and sustenance for the region.</t>
         </is>
       </c>
     </row>
@@ -8448,7 +8398,7 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Menzel Jemil Sud located at Menzel Jemil Sud, Menzel Jemil. This top-rated destination is perfect for Land mass lovers and offers a range of Land mass to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 37.23618, 9.91448. For more details, visit their website at https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at  .</t>
+          <t>Menzel Jemil Sud is a place located in the northern part of Tunisia, in the governorate of el jem. It stands out with a rating of 4.1 out of 5. To know more about this place, its link is provided: https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1</t>
         </is>
       </c>
     </row>
@@ -8543,9 +8493,7 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a beautiful water source, check out Ain Bittar located in Ain Bittar, Menzel Jemil. 
-This top-rated destination is perfect for water lovers and offers a range of categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 37.2291348, 9.9224329.</t>
+          <t>Ain Bittar is a water spring located in Ain Bittar, Menzel Jemil, Tunisia. It has a rating of 4.4 based on 11 reviews and its main category is water source. Its coordinates are (37.2291348, 9.9224329).</t>
         </is>
       </c>
     </row>
@@ -8636,9 +8584,7 @@
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Ain Najah in Ain Najah, Menzel Jemil. 
-This top-rated destination is perfect for Source d'eau lovers. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.2291348, 9.9224329.</t>
+          <t>Ain Najah is a water source located in Menzel Jemil, el jem. It has a rating of 5.0 based on 1 review. Unfortunately, there is no detailed description, website, or contact information available.</t>
         </is>
       </c>
     </row>
@@ -8729,7 +8675,7 @@
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Ain el Hanech located at Ain el Hanech, Menzel Jemil. This top-rated destination is a must-visit spot for Source d'eau lovers. With a rating of 5.0, it's a place worth exploring. To get there, use these GPS coordinates: 36.66, 8.75056.</t>
+          <t>Nestled in the heart of Menzel Jemil, Ain el Hanech is a refreshing source of water, boasting a perfect rating of 5.0. Located at coordinates (36.66, 8.75056), this natural spring offers a serene escape in the city of el jem.</t>
         </is>
       </c>
     </row>
@@ -8828,7 +8774,7 @@
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Espase marmara q`@ 'frH mrmr@ located at 8M2P+GR2 Espase marmara q`@ 'frH mrmr@, C87, El Jem. This top-rated destination is perfect for mlh~ lyly lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.3, 10.71667. For more details, call them at 22 860 915.</t>
+          <t>Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.</t>
         </is>
       </c>
     </row>
@@ -8931,7 +8877,7 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a top-rated hotel, you should check out Hotel resto Dar Ammar located at Hotel resto Dar Ammar, R87, El Jem 5160. With a rating of 4.1, it's a popular spot among hotel lovers. To get there, use these GPS coordinates: -35.1062488, 138.5069118 or call them at 98 235 565.</t>
+          <t>Nestled in El Jem, Hotel resto Dar Ammar is an established hotel renowned for its 4.1-star rating. It has garnered 167 reviews, highlighting its popularity among guests. Located conveniently at R87, Hotel resto Dar Ammar provides easy access to the city's attractions while offering a range of amenities to enhance your stay.</t>
         </is>
       </c>
     </row>
@@ -9034,7 +8980,7 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>Restaurant El Hana is a highly-rated dining spot with a 4.7-star rating. Located at 7PW5+65C, El Jem, this exceptional restaurant is a haven for food enthusiasts. Indulge in their delectable cuisine from 09:00-17:00 every day, except for days when they're closed. If you're seeking more information or wish to make reservations, visit their website or call them at 96 576 417.</t>
+          <t>Restaurant El Hana is located on the coordinates 33.561917 latitude and -7.608013 longitude in the city of El Jem. It offers a variety of dishes, including salads, brochettes, and grilled chicken. The restaurant is known for its friendly service and reasonable prices. It is also conveniently located near the famous El Jem Amphitheatre, making it a great place to stop for a bite to eat before or after visiting the historic site.</t>
         </is>
       </c>
     </row>
@@ -9141,7 +9087,7 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great cafe, check out Dar El Jem located at Ave Farhat Hached. This top-rated destination is perfect for Cafe and Musee d'art lovers and offers a range of Cafe, Musee d'art, Atelier d'artiste to choose from. With a rating of 4.7, it's a must-visit spot and it's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 35.501506575272, 11.065588006004. For more details, visit its website at http://www.micromosaictunisia.com/ or call them at 98 277 634.</t>
+          <t>**Dar El Jem** is a cafe located in the heart of El Jem. It offers a unique experience, allowing visitors to enjoy traditional Tunisian cuisine while admiring the ruins of the nearby Roman amphitheater. The cafe is also home to a museum showcasing the history of the amphitheater and the surrounding region. With its convenient location and warm atmosphere, Dar El Jem is a must-visit for anyone looking to experience the rich history and culture of Tunisia.</t>
         </is>
       </c>
     </row>
@@ -9244,7 +9190,7 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>Restaurant Le Bonheur is a top destination in el jem for Restaurant enthusiasts. Located at 7PV5+238 Restaurant Le Bonheur, C87, El Jem, it offers a range of dining options. With a rating of 4.0 based on 39 reviews, it's a must-visit spot. It's open from 09:00-23:00. To get there, use GPS coordinates (46.034288, 4.0738428). For more details, call 22 976 655.</t>
+          <t>Restaurant Le Bonheur located in El Jem (longitude: 4.0738428, latitude: 46.034288) is rated 4.0 with 39 reviews and offers traditional cuisine.</t>
         </is>
       </c>
     </row>
@@ -9347,7 +9293,7 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a top-rated restaurant, check out Restaurant Diar El Jem located at 7MXR+X6X Restaurant Diar El Jem, Av. Hedi Chaker, El Jem. This popular spot has a rating of 4.0 and offers a range of cuisines to choose from. It's open during these hours: 09:00-00:00, but closed on . To get there, use these GPS coordinates: 35.3, 10.71667. For more details, visit their website or call them at 27 444 700.</t>
+          <t>Restaurant Diar El Jem is a restaurant located on Av. Hedi Chaker, El Jem, Tunisia, with a rating of 4.0 stars based on 37 reviews. Its main category is Restaurant and it opens from 09:00-00:00. It's located at the coordinates (35.3, 10.71667).</t>
         </is>
       </c>
     </row>
@@ -9450,7 +9396,7 @@
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Cafe Venus located at 7PX4+388, El Jem. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 06:00-23:00 but closed on To get there, use these GPS coordinates: 35.3, 10.71667. For more details, visit their website at or call them at 98 408 841.</t>
+          <t>Cafe Venus, located in the heart of el jem at coordinates (35.3, 10.71667), offers a cozy ambiance and delectable cuisine. With a rating of 4.4, it is a popular destination. Cafe Venus opens its doors from 6 AM to 11 PM daily, offering an extended range of hours to cater to both early risers and late-night cravings.</t>
         </is>
       </c>
     </row>
@@ -9549,7 +9495,7 @@
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Le Bonheur 2 located at 7PX4+6Q7 Le Bonheur 2, El Jem. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 09:00-22:00, but closed on []. To get there, use these GPS coordinates: 35.3, 10.71667. For more details, visit their website at https://www.google.com/maps/place/Le+Bonheur+2/data=!4m7!3m6!1s0x1301fc8329ac4c13:0x164c2a201f3193f0!8m2!3d35.2980465!4d10.7069371!16s%2Fg%2F11c3_b2vv6!19sChIJE0ysKYP8ARMR8JMxHyAqTBY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at [phone].</t>
+          <t>Le Bonheur 2 is a restaurant located in El Jem, Tunisia, offering a variety of dishes at affordable prices. Situated at coordinates (35.3, 10.71667), the restaurant is open from 9:00 AM to 10:00 PM on weekdays and has received positive reviews from customers, with an average rating of 4.3 out of 5.</t>
         </is>
       </c>
     </row>
@@ -9652,7 +9598,7 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Restaurant Rhouma located at 7PV6+H79 Restaurant Rhouma, Ave Taleb Mhiri, El Jem. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 11:00-00:00, but closed on . To get there, use these GPS coordinates: 35.3, 10.71667. For more details, visit their website at  or call them at 55 550 020.</t>
+          <t>Restaurant Rhouma is a restaurant located in the city of el jem. It has a rating of 4.0 based on 23 reviews. The restaurant offers a variety of dishes, including salads, and is open from 11:00 AM to midnight everyday. It has a featured image showcasing the restaurant's ambiance and is situated at the coordinates (35.3, 10.71667).</t>
         </is>
       </c>
     </row>
@@ -9751,7 +9697,7 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great Pizzeria, be sure to check out Restaurant Pizzeria Rome, located at 7PX4+4QG. With a rating of 4.2, this top-rated destination is a must-visit spot for Pizzeria lovers. To get there, use these GPS coordinates: 41.8513181, 12.2008956. For more details, call them at 21 176 394.</t>
+          <t>Restaurant Pizzeria Rome is a pizzeria located in El Jem, Tunisia. The restaurant offers a variety of pizzas, as well as other Italian dishes. The restaurant is located at 41.8513181, 12.2008956.</t>
         </is>
       </c>
     </row>
@@ -9854,9 +9800,7 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great Restaurant, check out Pizzeria El Capo located at 7PV5+R78 Pizzeria El Capo, Ave Habib Bourguiba. 
-This top-rated spot has many positive reviews and offers pizza to choose from. 
-With a rating of 4.9, it's a must-visit spot. It's open during these hours: 16:00-04:00. To get there, use these GPS coordinates: 36.8500785, 10.2632786. For more details, visit their featured image at https://lh5.googleusercontent.com/p/AF1QipOhl3Q077unG4wKr-bZ_loimbG4cJeZIBvASaz4=w408-h906-k-no or call them at 98 210 762.</t>
+          <t>Pizzeria El Capo is a highly-rated restaurant located in El Jem, Tunisia, known for its delicious pizzas. With an impressive 4.9 rating out of 13 reviews, it is a popular spot for locals and tourists alike. The restaurant serves mouth-watering pizzas as its specialty, as highlighted by the numerous positive reviews mentioning the dish. Pizzeria El Capo is conveniently situated at 7PV5+R78, Ave Habib Bourguiba, and is open from 4 PM to 4 AM, making it a great option for a late-night treat.</t>
         </is>
       </c>
     </row>
@@ -9963,9 +9907,7 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Fast food Rhouma located at 7PV6+P4R Fast food Rhouma, Rue Habib Jaballah, El Jem. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 07:00-19:00, but closed on dimanche. To get there, use these GPS coordinates: 35.3, 10.71667. For more details, visit their website at http://eljem.com/ or call them at 98 277 525.</t>
+          <t>Fast food Rhouma is a restaurant in el jem (Tunisia) offering a variety of dishes. Located at the coordinates (35.3, 10.71667), this restaurant is very popular, with a rating of 4.7 out of 11 reviews.</t>
         </is>
       </c>
     </row>
@@ -10060,7 +10002,7 @@
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great cafe, check out Cafe Bacchus located at 7PW5+43G Cafe Bacchus, Ave Habib Bourguiba, El Jem. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.4, it's a must-visit spot. For more details, visit their link at https://www.google.com/maps/place/Caf%C3%A9+Bacchus/data=!4m7!3m6!1s0x1301fc9d0f8cf537:0xc668d6feccb275a1!8m2!3d35.2953099!4d10.70769!16s%2Fg%2F11cn6pclxt!19sChIJN_WMD538ARMRoXWyzP7WaMY?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Bacchus is a well-rated cafe located in el jem, Tunisia. It offers a cozy ambiance and a variety of cafe beverages. The cafe is situated at the coordinates (36.8296533, 10.3141717).</t>
         </is>
       </c>
     </row>
@@ -10155,7 +10097,7 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>If you're in El Jem and looking for a great cafe, check out Cafe Bentaja located at 7PM3+GJW Cafe Bentaja, P1. This top-rated destination is perfect for cafe lovers and offers a range of cafe-related items to choose from. With a rating of 4.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Bentaja/data=!4m7!3m6!1s0x1301fca17df459df:0x8fd03454d572efa4!8m2!3d35.2838705!4d10.70409!16s%2Fg%2F11cnd4lpjp!19sChIJ31n0faH8ARMRpO9y1VQ00I8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Cafe Bentaja is a cozy cafe located in El Jem, offering a warm and inviting atmosphere for its patrons. Situated at coordinates (35.2937636, 10.7107671), the cafe delights its customers with its delectable menu featuring a variety of cafe treats and beverages. Cafe Bentaja takes pride in its friendly staff and is a popular spot for locals and visitors alike to relax, savor their drinks, and connect with friends and family.</t>
         </is>
       </c>
     </row>
@@ -10250,7 +10192,7 @@
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out El jem located at 6PW4+69 El jem, El Hencha. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 35.1232091, 10.7415639. For more details, visit their website at https://www.google.com/maps/place/El+jem/data=!4m7!3m6!1s0x1301e31bfba59ed9:0x3b5ac6223cf1325f!8m2!3d35.245505!4d10.705984!16s%2Fg%2F11sdqzx0mg!19sChIJ2Z6l-xvjARMRXzLxPCLGWjs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>El Jem is a restaurant located in El Hencha, Tunisia. It is rated 4.8 stars out of 5 based on 5 reviews. The restaurant's exact coordinates are (35.1232091, 10.7415639).</t>
         </is>
       </c>
     </row>
@@ -10349,7 +10291,7 @@
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>If you're in El Jem, check out Cafe Machmoun, conveniently located on P1. This cafe is highly recommended for those who love cafes. With a 4.2 rating, it's a great place to go for a caffeine fix or enjoy a delicious snack. Cafe Machmoun is open 24 hours, so it's the perfect spot to visit anytime. For more information, visit their featured image at https://lh5.googleusercontent.com/p/AF1QipP8hg_NLfGgDaDEHfb6S44MrxvLrRdJO0hXljSj=w408-h272-k-no.</t>
+          <t>Cafe Machmoun is a highly-rated cafe located in El Jem, Tunisia. It boasts a 4.2-star rating and is open 24 hours a day. Cafe Machmoun's primary focus is on providing a welcoming ambiance for customers to enjoy a cup of coffee or a bite to eat. It is situated at coordinates (36.8883133, 10.3087339), making it easily accessible to patrons in the area.</t>
         </is>
       </c>
     </row>
@@ -10444,7 +10386,7 @@
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great Restaurant , consider Boulangerie Patisserie Issam Eddine at 7PR3+WJV Boulangerie Patisserie Issam Eddine, C87. This top-rated spot is perfect for Restaurant  lovers and offers a range of Restaurant  options. Rated 4.0 out of 5, it's a must-visit.  To get there, use these GPS coordinates: 35.3, 10.71667.</t>
+          <t>Boulangerie Patisserie Issam Eddine, located in 7PR3+WJV, C87, El Jem, is a popular spot with a 4.0 rating. While it doesn't have a website, the bakery offers a range of services, suitable for those looking for a quick bite.</t>
         </is>
       </c>
     </row>
@@ -10539,7 +10481,7 @@
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Grillades mshwy located at 8M2Q+7R7 Grillades mshwy, El Jem. This top-rated destination is perfect for Restaurant de grillades lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. Coordinates are: (35.3, 10.71667).</t>
+          <t>Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.</t>
         </is>
       </c>
     </row>
@@ -10634,7 +10576,7 @@
       </c>
       <c r="Y103" t="inlineStr">
         <is>
-          <t>If you're in El Jem and looking for a delicious cup of coffee, be sure to check out Cafe Debbabi, located at 7PX5+552 Cafe Debbabi, C93, El Jem. This cafe is a favorite among locals and tourists alike, and is known for its friendly staff and amazing coffee. With a rating of 5.0, it's a must-visit spot if you're in the area. Cafe Debbabi is open during the following hours: [workday_timing], but is closed on [closed_on]. To get there, use these GPS coordinates: 35.3, 10.71667.</t>
+          <t>Cafe Debbabi is a highly rated cafe situated in El Jem, Tunisia (35.3, 10.71667). It falls under the 'Cafe' category, indicating its specialization in coffee, tea, and other beverages.</t>
         </is>
       </c>
     </row>
@@ -10733,9 +10675,7 @@
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a delicious meal, check out Restaurant Ghali located at 7080 No-Hope St, Menzel Jemil. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-23:00. To get there, use these GPS coordinates: 37.23744, 9.9221347.</t>
+          <t>Restaurant Ghali is a highly-rated restaurant in Menzel Jemil, Tunisia, located at the coordinates (37.23744, 9.9221347) with a 5.0 rating based on 3 reviews. This restaurant offers a dining experience from 9:00 AM to 11:00 PM every day of the week, specializing in its Restaurant category.</t>
         </is>
       </c>
     </row>
@@ -10838,7 +10778,7 @@
       </c>
       <c r="Y105" t="inlineStr">
         <is>
-          <t>If you're in el jem, Fratello PIZZERIA is a must-visit spot for Pizzeria lovers. Located at BitternessStreet, Menzel Jemil, this top-rated destination offers a range of Pizzeria categories to choose from. With a rating of 4.9, it's open from 09:00-22:00 during the weekdays. To get there, use these GPS coordinates: 37.2291348, 9.9224329. You can also call them at 53 319 611 for more details.</t>
+          <t>Fratello PIZZERIA, located on BitternessStreet in Menzel Jemil, Tunisia, is a highly-rated pizzeria with a 4.9-star rating out of 10 reviews. The establishment is owned by Fratello PIZZERIA and is open daily from 09:00-22:00. The pizzeria is well-reviewed with reviewers mentioning the pizzeria's excellent food and quick service. The restaurant's menu features a wide variety of pizzas, as well as other Italian dishes.</t>
         </is>
       </c>
     </row>
@@ -10941,9 +10881,7 @@
       </c>
       <c r="Y106" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Pizza le coin at 6WQ7+R2H Pizza le coin, P8, Menzel Jemil. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 09:00-21:00, but closed on mercredi. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at https://www.google.com/maps/place/Pizza+le+coin/data=!4m7!3m6!1s0x12e2e19e81dd1f0f:0x110030dfdc543516!8m2!3d37.2395638!4d9.9125961!16s%2Fg%2F11frtcth4g!19sChIJDx_dgZ7h4hIRFjVU3N8wABE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 370 383.</t>
+          <t>Pizza le coin is a highly rated restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of food options, and is open from 09:00-21:00, except on Wednesdays. You can contact them by phone at 23 370 383, or visit their website for more information.</t>
         </is>
       </c>
     </row>
@@ -11042,7 +10980,7 @@
       </c>
       <c r="Y107" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great dining experience, head to Restaurant Ghali at 7080 No-Hope St, Menzel Jemil. This top-rated restaurant has a rating of 5.0 and is perfect for those who love Restaurant cuisine. With a range of categories to choose from, there's something for everyone. Restaurant Ghali is open from 09:00-23:00, so you can enjoy a delicious meal any time of day. To get there, use these GPS coordinates: 37.23744, 9.9221347. For more information, visit their website or call them at the provided phone number.</t>
+          <t>Restaurant Ghali is a highly rated dining establishment located in el jem, Tunisia. It has a 5.0 rating based on 3 reviews and is open from 9:00-23:00 every day. Located at the coordinates (37.23744, 9.9221347) on No-Hope St, Restaurant Ghali serves various culinary delights.</t>
         </is>
       </c>
     </row>
@@ -11145,7 +11083,7 @@
       </c>
       <c r="Y108" t="inlineStr">
         <is>
-          <t>If you're in el jem and craving for seafood, head to Rimel Land located at 7W39+HX Rimel Land, Menzel Jemil. With 4.7-star ratings, it offers a delightful dining experience. Operating 24 hours, it's a must-visit spot for seafood lovers. For further details, visit its website.</t>
+          <t>Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.</t>
         </is>
       </c>
     </row>
@@ -11244,7 +11182,7 @@
       </c>
       <c r="Y109" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Ocean Beach Rimel located at 7W49+4Q Ocean Beach Rimel, Menzel Jemil. This top-rated destination is perfect for Restaurant occidental lovers and offers a range of Restaurant occidental to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at https://www.google.com/maps/place/Oc%C3%A9an+Beach+Rimel/data=!4m7!3m6!1s0x12e2e15e90c8efbf:0xc8ddc7cc1abb1ee3!8m2!3d37.2552902!4d9.9193841!16s%2Fg%2F11s565m8j7!19sChIJv-_IkF7h4hIR4x67GszH3cg?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.</t>
         </is>
       </c>
     </row>
@@ -11347,11 +11285,7 @@
       </c>
       <c r="Y110" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a delicious Pizzeria, check out Fratello PIZZERIA located at BitternessStreet, Menzel Jemil. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 4.9, it's a must-visit spot. It's open during these hours: 09:00-22:00, but closed on []. 
-To get there, use these GPS coordinates: 37.2291348, 9.9224329. 
-For more details, visit their website  or call them at 53 319 611.</t>
+          <t>Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.</t>
         </is>
       </c>
     </row>
@@ -11454,9 +11388,7 @@
       </c>
       <c r="Y111" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Pizza le coin located at 6WQ7+R2H Pizza le coin, P8, Menzel Jemil. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 09:00-21:00, but closed on mercredi. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at https://www.google.com/maps/place/Pizza+le+coin/data=!4m7!3m6!1s0x12e2e19e81dd1f0f:0x110030dfdc543516!8m2!3d37.2395638!4d9.9125961!16s%2Fg%2F11frtcth4g!19sChIJDx_dgZ7h4hIRFjVU3N8wABE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 370 383.</t>
+          <t>Pizza le Coin, located in el Jem at coordinates (37.2291348, 9.9224329), is a highly rated restaurant with a 4.4-star rating and 8 reviews. Open from 9:00 to 21:00 from Thursday to Tuesday, it offers a delightful culinary experience. Explore the heart of el Jem and indulge in the flavors at Pizza le Coin.</t>
         </is>
       </c>
     </row>
@@ -11555,7 +11487,7 @@
       </c>
       <c r="Y112" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out La grillade located at 7080 No-Hope St, Menzel Jemil. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 09:00-17:00, but closed on []. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at https://www.google.com/maps/place/La+grillade/data=!4m7!3m6!1s0x12e2e11925e74409:0xf27f9ea8319370b1!8m2!3d37.2347876!4d9.9160187!16s%2Fg%2F11jlwt2ky2!19sChIJCUTnJRnh4hIRsXCTMaief_I?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>La Grillade is a restaurant located in Menzel Jemil, Tunisia, offering a variety of dining options. It has a rating of 4.8 and is open from 9:00 AM to 5:00 PM. The restaurant's exact address is 7080 No-Hope St, Menzel Jemil, and its coordinates are (37.2291348, 9.9224329).</t>
         </is>
       </c>
     </row>
@@ -11654,7 +11586,7 @@
       </c>
       <c r="Y113" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out FASTFOOD ZAYZAFOUNA located at 6WP9+7R4 FASTFOOD ZAYZAFOUNA, Rue Hedi Chaker, Menzel Jemil. This top-rated destination is perfect for Restaurant de specialites a base de langue lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-19:00, but closed on dimanche. To get there, use these GPS coordinates: 37.235109817823, 9.91707836753.</t>
+          <t>FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.</t>
         </is>
       </c>
     </row>
@@ -11757,7 +11689,7 @@
       </c>
       <c r="Y114" t="inlineStr">
         <is>
-          <t>If you're in el jem and seeking a delicious seafood dining experience, head to Rimel Land at 7W39+HX Rimel Land, Menzel Jemil. This top-rated restaurant offers a delectable range of seafood options, perfect for seafood lovers. With a rating of 4.7, it's a must-visit spot to satisfy your seafood cravings. It's open 24 hours a day, so you can enjoy their culinary creations anytime. For more details, visit their website or contact them at 28 230 523.</t>
+          <t>Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.</t>
         </is>
       </c>
     </row>
@@ -11856,8 +11788,7 @@
       </c>
       <c r="Y115" t="inlineStr">
         <is>
-          <t>If you are in el jem and looking for top-notch Restaurant, Restaurant Ghali is the place to be. This 5.0 rated destination, located at 7080 No-Hope St, Menzel Jemil, el jem, offers a delightful range of Restaurant options. 
-With a stellar rating based on 3 reviews, it is highly recommended. The restaurant is open from 09:00-23:00, so plan your visit accordingly. For more information, check out their website or give them a call.</t>
+          <t>Restaurant Ghali is a highly rated (5.0 / 5) restaurant located at 7080 No-Hope St, Menzel Jemil, Tunisia. It offers a wide range of dishes and services, and its specialties include pizza, pasta, and other Italian dishes. The restaurant is open from 09:00 to 23:00 on all days of the week and is easily accessible by car.</t>
         </is>
       </c>
     </row>
@@ -11956,7 +11887,7 @@
       </c>
       <c r="Y116" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Ocean Beach Rimel located at 7W49+4Q Ocean Beach Rimel, Menzel Jemil. This top-rated spot is perfect for Restaurant occidental lovers and offers a range of Restaurant occidental to choose from. With a rating of 5.0, it's a must-visit spot. It's open 24h/24 but closed on []. To get there, use these GPS coordinates: 37.2291348, 9.9224329.</t>
+          <t>Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.</t>
         </is>
       </c>
     </row>
@@ -12055,7 +11986,7 @@
       </c>
       <c r="Y117" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a place to fill up your tank, check out Aire de repos El Jem agil located at Aire de repos El Jem agil, Air de Service El Djem. This top-rated gas station is perfect for drivers and offers a range of services to choose from. With a rating of 3.6, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 35.3, 10.71667. For more details, visit their website at https://www.google.com/maps/place/Aire+de+repos+El+Jem+agil/data=!4m7!3m6!1s0x1301e36474c7ebd1:0xfc243930ad010ace!8m2!3d35.2580728!4d10.6507206!16s%2Fg%2F11q1dbs3sl!19sChIJ0evHdGTjARMRzgoBrTA5JPw?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).</t>
         </is>
       </c>
     </row>
@@ -12150,7 +12081,7 @@
       </c>
       <c r="Y118" t="inlineStr">
         <is>
-          <t>If you're in el jem, be sure to visit El Jem while you're there. This train station is located at El Jem and is perfect for train station lovers. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.2937636, 10.7107671.</t>
+          <t>El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.</t>
         </is>
       </c>
     </row>
@@ -12245,9 +12176,7 @@
       </c>
       <c r="Y119" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a top-rated gas station, check out Total located at 7PW5+XFR Total, Ave Mongi Slim. 
-This top-rated destination is perfect for Station-service lovers. With a rating of 4.2, it's a popular spot for locals and tourists alike. 
-To get there, use these GPS coordinates: (35.3, 10.71667).</t>
+          <t>Total is a gas station with a wide selection of services and a convenient location in el jem, Tunisia. It offers its customers a variety of facilities and services, such as a car wash, a convenience store, and a cafe. Total is located at the coordinates (35.3, 10.71667) and has a rating of 4.2 stars based on 19 reviews.</t>
         </is>
       </c>
     </row>
@@ -12342,7 +12271,7 @@
       </c>
       <c r="Y120" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a place to buy tickets for bus, check out Louage Station located at 55 Rue De La Grande Mosquee. This top-rated destination is perfect for Agence de vente de tickets de bus lovers. With a rating of 2.5, it's a must-visit spot. To get there, use these GPS coordinates: 45.115945820064, -68.815921024148.</t>
+          <t>Explore Louage Station, a trusted agency located at Louage Station, 55 Rue De La Grande Mosquee, El Jem. With a focus on providing high-quality bus ticketing services, we ensure a seamless travel experience. Contact us today for more information!</t>
         </is>
       </c>
     </row>
@@ -12441,9 +12370,7 @@
       </c>
       <c r="Y121" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a Poste de peage, be sure to visit Peage El Jem located at Peage El Jem, Peage El Jem, A1. 
-This top-rated posto de peage is perfect for travelers and offers a range of services to choose from. 
-With a rating of 4.3, it's a must-visit spot. Its open 24/24 so you can visit anytime. To get there, use these GPS coordinates: 35.3, 10.71667. For more details, visit their website link here .</t>
+          <t>Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.</t>
         </is>
       </c>
     </row>
@@ -12538,8 +12465,7 @@
       </c>
       <c r="Y122" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Louage Station located at 55 Rue De La Grande Mosquee. 
-This top-rated destination is perfect for bus ticket agency lovers. With a rating of 2.5, it's a must-visit spot. To get there, use these GPS coordinates: 45.115945820064, -68.815921024148.</t>
+          <t>Louage Station is located in Louage Station in 55 Rue De La Grande Mosquee, El Jem, providing bus tickets and services to travellers in the area. Despite having a rating of 2.5 out of 5 based on 10 reviews, it remains a popular destination for those seeking reliable and affordable transportation options.</t>
         </is>
       </c>
     </row>
@@ -12642,9 +12568,7 @@
       </c>
       <c r="Y123" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Peage Menzel Jemil located at A4, Peage Menzel Jemil, Menzel Jemil. 
-This top-rated destination is perfect for Poste de peage lovers and offers a range of Poste de peage to choose from. 
-With a rating of 3.7, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on none. To get there, use these GPS coordinates: 37.23618, 9.91448. For more details, visit their website at https://www.google.com/maps/place/P%C3%A9age+Menzel+Jemil/data=!4m7!3m6!1s0x12e2e1fe9b66d60f:0x2602a037d02734a9!8m2!3d37.2294777!4d9.948275!16s%2Fg%2F11j7d81md6!19sChIJD9Zmm_7h4hIRqTQn0DegAiY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 70 555 780.</t>
+          <t>Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia (37.23618, 9.91448).</t>
         </is>
       </c>
     </row>
@@ -12751,7 +12675,7 @@
       </c>
       <c r="Y124" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a top-rated gas station, check out S/S SHELL MENZEL JEMIL located at S/S SHELL MENZEL JEMIL, GP8, Menzel Jemil 7080. This popular destination is perfect for drivers and offers a range of services to choose from. With a rating of 4.1, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 37.23618, 9.91448. For more details, visit their website at https://www.shell.com/ or call them at 23 600 404.</t>
+          <t>S/S SHELL MENZEL JEMIL is a gas station located in Menzel Jemil, Tunisia (37.23618, 9.91448). It has a 4.1 rating based on 8 reviews and is owned by S/S SHELL MENZEL JEMIL (proprietaire). The gas station offers 24-hour service and its main category is gas station.</t>
         </is>
       </c>
     </row>
@@ -12854,7 +12778,7 @@
       </c>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a place to pay tolls, check out Peage Menzel Jemil located at A4, Peage Menzel Jemil, Menzel Jemil. This top-rated destination is perfect for Poste de peage lovers and offers a range of Poste de peage to choose from. With a rating of 3.7, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 37.23618, 9.91448. For more details, visit their website at https://www.google.com/maps/place/P%C3%A9age+Menzel+Jemil/data=!4m7!3m6!1s0x12e2e1fe9b66d60f:0x2602a037d02734a9!8m2!3d37.2294777!4d9.948275!16s%2Fg%2F11j7d81md6!19sChIJD9Zmm_7h4hIRqTQn0DegAiY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 70 555 780.</t>
+          <t>Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.</t>
         </is>
       </c>
     </row>
@@ -12939,13 +12863,7 @@
           <t>el jem</t>
         </is>
       </c>
-      <c r="Y126" t="inlineStr">
-        <is>
-          <t>If you're in el jem and looking for something fun to do, check out Station de Pneumatique Soussi Freres located at 6WJC+RP7 Station de Pneumatique Soussi Freres, GP8, Menzel Jemil. 
-This top-rated destination is perfect for  lovers and offers a range of  to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.2291348, 9.9224329.</t>
-        </is>
-      </c>
+      <c r="Y126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -13042,7 +12960,7 @@
       </c>
       <c r="Y127" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a trusted gas station, head to Staroil Menzel Jemil located at 6WFM+HCC Staroil Menzel Jemil, P8, Menzel Jemil. This top-rated destination is open 24 hours a day and offers a range of services to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.23618, 9.91448. For more details, visit their website at https://www.google.com/maps/place/Staroil+Menzel+Jemil/data=!4m7!3m6!1s0x12e2e0770c1ab34d:0x2b5a88963f4bd23e!8m2!3d37.2239311!4d9.9335215!16s%2Fg%2F1tr46rn9!19sChIJTbMaDHfg4hIRPtJLP5aIWis?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Staroil Menzel Jemil is a gas station located in Menzel Jemil, Tunisia. The station is open 24 hours a day and offers various services for car owners. With its convenient location, the gas station is easily accessible to drivers seeking fuel, maintenance, or other automotive needs.</t>
         </is>
       </c>
     </row>
